--- a/lv4/stats.xlsx
+++ b/lv4/stats.xlsx
@@ -8,22 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Student\sm123\blockchain-labos\lv4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FF7A9A-BFDE-439F-9F42-6371E1BB7121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED45760-00AF-4F09-9158-F45B0588FCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{845C23C1-35C7-450D-8737-62ED10D40044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$F$3:$F$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$H$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$I$3:$I$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$9</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$3:$F$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$F$9</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$I$3:$I$6</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -254,7 +245,7 @@
                   <c:v>378004.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1215327</c:v>
+                  <c:v>1316512.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1334,7 +1325,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:I6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,11 +1407,11 @@
         <v>1980531</v>
       </c>
       <c r="H6" s="4">
-        <v>450123</v>
+        <v>652494</v>
       </c>
       <c r="I6" s="4">
         <f>AVERAGE(G6:H6)</f>
-        <v>1215327</v>
+        <v>1316512.5</v>
       </c>
     </row>
   </sheetData>
